--- a/TECH SKILLS.xlsx
+++ b/TECH SKILLS.xlsx
@@ -161,7 +161,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.52"/>
